--- a/nmadb/501212.xlsx
+++ b/nmadb/501212.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="19440" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>trt</t>
   </si>
   <si>
     <t>Apixaban</t>
@@ -92,17 +89,20 @@
     </r>
   </si>
   <si>
-    <t>Studyid</t>
-  </si>
-  <si>
     <t>Harmful</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -315,7 +315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -350,7 +349,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,14 +524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
@@ -542,15 +540,15 @@
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -559,13 +557,13 @@
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -582,7 +580,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,13 +597,13 @@
         <v>9081</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -625,10 +623,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -648,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -671,10 +669,10 @@
         <v>3</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -694,10 +692,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -717,10 +715,10 @@
         <v>5</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -737,7 +735,7 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -754,7 +752,7 @@
         <v>6076</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
@@ -771,7 +769,7 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -788,7 +786,7 @@
         <v>7081</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -812,24 +810,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
